--- a/SC82_D02.01(b) Finalised version of the LIFO monitoring mechanism_W2scores.xlsx
+++ b/SC82_D02.01(b) Finalised version of the LIFO monitoring mechanism_W2scores.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="425">
   <si>
     <t>Data Source</t>
   </si>
@@ -1864,6 +1864,12 @@
   </si>
   <si>
     <t>TOTAL SCORE OF SUBSTANTIAL QUESTIONS</t>
+  </si>
+  <si>
+    <t>Q17.1</t>
+  </si>
+  <si>
+    <t>Q17.2</t>
   </si>
 </sst>
 </file>
@@ -2508,6 +2514,30 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2546,30 +2576,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2619,7 +2625,7 @@
         <xdr:cNvPr id="2" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,7 +2681,7 @@
         <xdr:cNvPr id="3" name="Freeform 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4202,16 +4208,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="71" t="s">
         <v>381</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
@@ -4234,8 +4240,8 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -4370,8 +4376,12 @@
   </sheetPr>
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="25" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="H1" sqref="H1"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -4399,17 +4409,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="83" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="70" t="s">
         <v>156</v>
       </c>
       <c r="H1" s="61"/>
@@ -4435,45 +4445,45 @@
       <c r="AB1" s="61"/>
     </row>
     <row r="2" spans="1:28" s="18" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="65" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68" t="s">
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="62"/>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71" t="s">
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="73"/>
-    </row>
-    <row r="3" spans="1:28" s="19" customFormat="1" ht="35" x14ac:dyDescent="0.35">
-      <c r="A3" s="74"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81"/>
+    </row>
+    <row r="3" spans="1:28" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+      <c r="A3" s="82"/>
       <c r="B3" s="24" t="s">
         <v>138</v>
       </c>
@@ -4510,7 +4520,7 @@
       <c r="M3" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="69" t="s">
         <v>421</v>
       </c>
       <c r="O3" s="56" t="s">
@@ -4596,35 +4606,35 @@
       <c r="M4" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76">
-        <v>1</v>
-      </c>
-      <c r="P4" s="76">
+      <c r="N4" s="63"/>
+      <c r="O4" s="63">
+        <v>1</v>
+      </c>
+      <c r="P4" s="63">
         <v>3</v>
       </c>
-      <c r="Q4" s="76">
+      <c r="Q4" s="63">
         <v>4</v>
       </c>
-      <c r="R4" s="76">
-        <v>2</v>
-      </c>
-      <c r="S4" s="76">
-        <v>2</v>
-      </c>
-      <c r="T4" s="76">
+      <c r="R4" s="63">
+        <v>2</v>
+      </c>
+      <c r="S4" s="63">
+        <v>2</v>
+      </c>
+      <c r="T4" s="63">
         <v>3</v>
       </c>
-      <c r="U4" s="76">
+      <c r="U4" s="63">
         <v>0</v>
       </c>
-      <c r="V4" s="76">
-        <v>1</v>
-      </c>
-      <c r="W4" s="76">
-        <v>2</v>
-      </c>
-      <c r="X4" s="76">
+      <c r="V4" s="63">
+        <v>1</v>
+      </c>
+      <c r="W4" s="63">
+        <v>2</v>
+      </c>
+      <c r="X4" s="63">
         <v>4</v>
       </c>
     </row>
@@ -4638,41 +4648,43 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="55"/>
-      <c r="J5" s="42"/>
+      <c r="J5" s="42" t="s">
+        <v>295</v>
+      </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="43"/>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O5" s="77">
-        <v>2</v>
-      </c>
-      <c r="P5" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="77">
-        <v>2</v>
-      </c>
-      <c r="R5" s="77">
-        <v>2</v>
-      </c>
-      <c r="S5" s="77">
-        <v>2</v>
-      </c>
-      <c r="T5" s="77">
-        <v>2</v>
-      </c>
-      <c r="U5" s="77">
+      <c r="O5" s="64">
+        <v>2</v>
+      </c>
+      <c r="P5" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="64">
+        <v>2</v>
+      </c>
+      <c r="R5" s="64">
+        <v>2</v>
+      </c>
+      <c r="S5" s="64">
+        <v>2</v>
+      </c>
+      <c r="T5" s="64">
+        <v>2</v>
+      </c>
+      <c r="U5" s="64">
         <v>0</v>
       </c>
-      <c r="V5" s="77">
-        <v>2</v>
-      </c>
-      <c r="W5" s="77">
-        <v>2</v>
-      </c>
-      <c r="X5" s="77">
+      <c r="V5" s="64">
+        <v>2</v>
+      </c>
+      <c r="W5" s="64">
+        <v>2</v>
+      </c>
+      <c r="X5" s="64">
         <v>2</v>
       </c>
       <c r="Y5" s="42" t="s">
@@ -4728,35 +4740,35 @@
       <c r="M6" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78">
-        <v>1</v>
-      </c>
-      <c r="P6" s="78">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="78">
+      <c r="N6" s="65"/>
+      <c r="O6" s="65">
+        <v>1</v>
+      </c>
+      <c r="P6" s="65">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="65">
         <v>0</v>
       </c>
-      <c r="R6" s="78">
-        <v>1</v>
-      </c>
-      <c r="S6" s="78">
-        <v>2</v>
-      </c>
-      <c r="T6" s="78">
-        <v>2</v>
-      </c>
-      <c r="U6" s="78">
-        <v>1</v>
-      </c>
-      <c r="V6" s="78">
-        <v>2</v>
-      </c>
-      <c r="W6" s="78">
-        <v>1</v>
-      </c>
-      <c r="X6" s="78">
+      <c r="R6" s="65">
+        <v>1</v>
+      </c>
+      <c r="S6" s="65">
+        <v>2</v>
+      </c>
+      <c r="T6" s="65">
+        <v>2</v>
+      </c>
+      <c r="U6" s="65">
+        <v>1</v>
+      </c>
+      <c r="V6" s="65">
+        <v>2</v>
+      </c>
+      <c r="W6" s="65">
+        <v>1</v>
+      </c>
+      <c r="X6" s="65">
         <v>2</v>
       </c>
       <c r="Y6" s="42"/>
@@ -4804,35 +4816,35 @@
       <c r="M7" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77">
-        <v>1</v>
-      </c>
-      <c r="P7" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="77">
+      <c r="N7" s="64"/>
+      <c r="O7" s="64">
+        <v>1</v>
+      </c>
+      <c r="P7" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="64">
         <v>3</v>
       </c>
-      <c r="R7" s="77">
-        <v>2</v>
-      </c>
-      <c r="S7" s="77">
-        <v>1</v>
-      </c>
-      <c r="T7" s="77">
-        <v>2</v>
-      </c>
-      <c r="U7" s="77">
-        <v>1</v>
-      </c>
-      <c r="V7" s="77">
-        <v>1</v>
-      </c>
-      <c r="W7" s="77">
-        <v>2</v>
-      </c>
-      <c r="X7" s="77">
+      <c r="R7" s="64">
+        <v>2</v>
+      </c>
+      <c r="S7" s="64">
+        <v>1</v>
+      </c>
+      <c r="T7" s="64">
+        <v>2</v>
+      </c>
+      <c r="U7" s="64">
+        <v>1</v>
+      </c>
+      <c r="V7" s="64">
+        <v>1</v>
+      </c>
+      <c r="W7" s="64">
+        <v>2</v>
+      </c>
+      <c r="X7" s="64">
         <v>3</v>
       </c>
       <c r="Y7" s="42"/>
@@ -4878,35 +4890,35 @@
       <c r="M8" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76">
-        <v>2</v>
-      </c>
-      <c r="P8" s="76">
+      <c r="N8" s="63"/>
+      <c r="O8" s="63">
+        <v>2</v>
+      </c>
+      <c r="P8" s="63">
         <v>3</v>
       </c>
-      <c r="Q8" s="76">
+      <c r="Q8" s="63">
         <v>3</v>
       </c>
-      <c r="R8" s="76">
-        <v>2</v>
-      </c>
-      <c r="S8" s="76">
-        <v>1</v>
-      </c>
-      <c r="T8" s="76">
+      <c r="R8" s="63">
+        <v>2</v>
+      </c>
+      <c r="S8" s="63">
+        <v>1</v>
+      </c>
+      <c r="T8" s="63">
         <v>0</v>
       </c>
-      <c r="U8" s="76">
-        <v>1</v>
-      </c>
-      <c r="V8" s="76">
-        <v>1</v>
-      </c>
-      <c r="W8" s="76">
-        <v>2</v>
-      </c>
-      <c r="X8" s="76">
+      <c r="U8" s="63">
+        <v>1</v>
+      </c>
+      <c r="V8" s="63">
+        <v>1</v>
+      </c>
+      <c r="W8" s="63">
+        <v>2</v>
+      </c>
+      <c r="X8" s="63">
         <v>3</v>
       </c>
     </row>
@@ -4920,41 +4932,43 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="42"/>
+      <c r="J9" s="42" t="s">
+        <v>297</v>
+      </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="43"/>
-      <c r="N9" s="77" t="s">
+      <c r="N9" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O9" s="77">
-        <v>2</v>
-      </c>
-      <c r="P9" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="77">
-        <v>2</v>
-      </c>
-      <c r="R9" s="77">
-        <v>2</v>
-      </c>
-      <c r="S9" s="77">
-        <v>2</v>
-      </c>
-      <c r="T9" s="77">
-        <v>2</v>
-      </c>
-      <c r="U9" s="77">
+      <c r="O9" s="64">
+        <v>2</v>
+      </c>
+      <c r="P9" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="64">
+        <v>2</v>
+      </c>
+      <c r="R9" s="64">
+        <v>2</v>
+      </c>
+      <c r="S9" s="64">
+        <v>2</v>
+      </c>
+      <c r="T9" s="64">
+        <v>2</v>
+      </c>
+      <c r="U9" s="64">
         <v>0</v>
       </c>
-      <c r="V9" s="77">
-        <v>2</v>
-      </c>
-      <c r="W9" s="77">
-        <v>2</v>
-      </c>
-      <c r="X9" s="77">
+      <c r="V9" s="64">
+        <v>2</v>
+      </c>
+      <c r="W9" s="64">
+        <v>2</v>
+      </c>
+      <c r="X9" s="64">
         <v>2</v>
       </c>
       <c r="Y9" s="42" t="s">
@@ -5008,35 +5022,35 @@
       <c r="M10" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76">
-        <v>1</v>
-      </c>
-      <c r="P10" s="76">
+      <c r="N10" s="63"/>
+      <c r="O10" s="63">
+        <v>1</v>
+      </c>
+      <c r="P10" s="63">
         <v>3</v>
       </c>
-      <c r="Q10" s="76">
-        <v>2</v>
-      </c>
-      <c r="R10" s="76">
+      <c r="Q10" s="63">
+        <v>2</v>
+      </c>
+      <c r="R10" s="63">
         <v>4</v>
       </c>
-      <c r="S10" s="76">
-        <v>2</v>
-      </c>
-      <c r="T10" s="76">
+      <c r="S10" s="63">
+        <v>2</v>
+      </c>
+      <c r="T10" s="63">
         <v>3</v>
       </c>
-      <c r="U10" s="76">
-        <v>1</v>
-      </c>
-      <c r="V10" s="76">
-        <v>1</v>
-      </c>
-      <c r="W10" s="76">
+      <c r="U10" s="63">
+        <v>1</v>
+      </c>
+      <c r="V10" s="63">
+        <v>1</v>
+      </c>
+      <c r="W10" s="63">
         <v>4</v>
       </c>
-      <c r="X10" s="76">
+      <c r="X10" s="63">
         <v>4</v>
       </c>
     </row>
@@ -5050,41 +5064,43 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="42" t="s">
+        <v>299</v>
+      </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="43"/>
-      <c r="N11" s="77" t="s">
+      <c r="N11" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O11" s="77">
+      <c r="O11" s="64">
         <v>0</v>
       </c>
-      <c r="P11" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="77">
-        <v>2</v>
-      </c>
-      <c r="R11" s="77">
-        <v>2</v>
-      </c>
-      <c r="S11" s="77">
+      <c r="P11" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="64">
+        <v>2</v>
+      </c>
+      <c r="R11" s="64">
+        <v>2</v>
+      </c>
+      <c r="S11" s="64">
         <v>0</v>
       </c>
-      <c r="T11" s="77">
-        <v>2</v>
-      </c>
-      <c r="U11" s="77">
+      <c r="T11" s="64">
+        <v>2</v>
+      </c>
+      <c r="U11" s="64">
         <v>0</v>
       </c>
-      <c r="V11" s="77">
+      <c r="V11" s="64">
         <v>0</v>
       </c>
-      <c r="W11" s="77">
-        <v>2</v>
-      </c>
-      <c r="X11" s="77">
+      <c r="W11" s="64">
+        <v>2</v>
+      </c>
+      <c r="X11" s="64">
         <v>2</v>
       </c>
       <c r="Y11" s="42" t="s">
@@ -5140,35 +5156,35 @@
       <c r="M12" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76">
-        <v>1</v>
-      </c>
-      <c r="P12" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="76">
-        <v>1</v>
-      </c>
-      <c r="R12" s="76">
+      <c r="N12" s="63"/>
+      <c r="O12" s="63">
+        <v>1</v>
+      </c>
+      <c r="P12" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="63">
+        <v>1</v>
+      </c>
+      <c r="R12" s="63">
         <v>0</v>
       </c>
-      <c r="S12" s="76">
-        <v>1</v>
-      </c>
-      <c r="T12" s="76">
+      <c r="S12" s="63">
+        <v>1</v>
+      </c>
+      <c r="T12" s="63">
         <v>0</v>
       </c>
-      <c r="U12" s="76">
-        <v>1</v>
-      </c>
-      <c r="V12" s="76">
-        <v>1</v>
-      </c>
-      <c r="W12" s="76">
-        <v>1</v>
-      </c>
-      <c r="X12" s="76">
+      <c r="U12" s="63">
+        <v>1</v>
+      </c>
+      <c r="V12" s="63">
+        <v>1</v>
+      </c>
+      <c r="W12" s="63">
+        <v>1</v>
+      </c>
+      <c r="X12" s="63">
         <v>1</v>
       </c>
     </row>
@@ -5182,41 +5198,43 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="42"/>
+      <c r="J13" s="42" t="s">
+        <v>323</v>
+      </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="77" t="s">
+      <c r="N13" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O13" s="77">
-        <v>2</v>
-      </c>
-      <c r="P13" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="77">
-        <v>2</v>
-      </c>
-      <c r="R13" s="77">
+      <c r="O13" s="64">
+        <v>2</v>
+      </c>
+      <c r="P13" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="64">
+        <v>2</v>
+      </c>
+      <c r="R13" s="64">
         <v>0</v>
       </c>
-      <c r="S13" s="77">
-        <v>2</v>
-      </c>
-      <c r="T13" s="77">
+      <c r="S13" s="64">
+        <v>2</v>
+      </c>
+      <c r="T13" s="64">
         <v>0</v>
       </c>
-      <c r="U13" s="77">
-        <v>1</v>
-      </c>
-      <c r="V13" s="77">
-        <v>2</v>
-      </c>
-      <c r="W13" s="77">
-        <v>2</v>
-      </c>
-      <c r="X13" s="77">
+      <c r="U13" s="64">
+        <v>1</v>
+      </c>
+      <c r="V13" s="64">
+        <v>2</v>
+      </c>
+      <c r="W13" s="64">
+        <v>2</v>
+      </c>
+      <c r="X13" s="64">
         <v>2</v>
       </c>
       <c r="Y13" s="42" t="s">
@@ -5272,35 +5290,35 @@
       <c r="M14" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76">
+      <c r="N14" s="63"/>
+      <c r="O14" s="63">
         <v>3</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="63">
         <v>3</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="63">
         <v>3</v>
       </c>
-      <c r="R14" s="76">
+      <c r="R14" s="63">
         <v>0</v>
       </c>
-      <c r="S14" s="76">
-        <v>1</v>
-      </c>
-      <c r="T14" s="76">
+      <c r="S14" s="63">
+        <v>1</v>
+      </c>
+      <c r="T14" s="63">
         <v>3</v>
       </c>
-      <c r="U14" s="76">
+      <c r="U14" s="63">
         <v>0</v>
       </c>
-      <c r="V14" s="76">
-        <v>1</v>
-      </c>
-      <c r="W14" s="76">
-        <v>2</v>
-      </c>
-      <c r="X14" s="76">
+      <c r="V14" s="63">
+        <v>1</v>
+      </c>
+      <c r="W14" s="63">
+        <v>2</v>
+      </c>
+      <c r="X14" s="63">
         <v>4</v>
       </c>
     </row>
@@ -5314,41 +5332,43 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="42" t="s">
+        <v>144</v>
+      </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="43"/>
-      <c r="N15" s="77" t="s">
+      <c r="N15" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O15" s="77">
+      <c r="O15" s="64">
         <v>0</v>
       </c>
-      <c r="P15" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="77">
-        <v>2</v>
-      </c>
-      <c r="R15" s="77">
+      <c r="P15" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="64">
+        <v>2</v>
+      </c>
+      <c r="R15" s="64">
         <v>0</v>
       </c>
-      <c r="S15" s="77">
-        <v>2</v>
-      </c>
-      <c r="T15" s="77">
+      <c r="S15" s="64">
+        <v>2</v>
+      </c>
+      <c r="T15" s="64">
         <v>0</v>
       </c>
-      <c r="U15" s="77">
+      <c r="U15" s="64">
         <v>0</v>
       </c>
-      <c r="V15" s="77">
+      <c r="V15" s="64">
         <v>0</v>
       </c>
-      <c r="W15" s="77">
+      <c r="W15" s="64">
         <v>0</v>
       </c>
-      <c r="X15" s="77">
+      <c r="X15" s="64">
         <v>2</v>
       </c>
       <c r="Y15" s="42" t="s">
@@ -5404,35 +5424,35 @@
       <c r="M16" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77">
+      <c r="N16" s="64"/>
+      <c r="O16" s="64">
         <v>3</v>
       </c>
-      <c r="P16" s="77">
+      <c r="P16" s="64">
         <v>4</v>
       </c>
-      <c r="Q16" s="77">
-        <v>2</v>
-      </c>
-      <c r="R16" s="77">
-        <v>1</v>
-      </c>
-      <c r="S16" s="77">
-        <v>2</v>
-      </c>
-      <c r="T16" s="77">
+      <c r="Q16" s="64">
+        <v>2</v>
+      </c>
+      <c r="R16" s="64">
+        <v>1</v>
+      </c>
+      <c r="S16" s="64">
+        <v>2</v>
+      </c>
+      <c r="T16" s="64">
         <v>3</v>
       </c>
-      <c r="U16" s="77">
-        <v>2</v>
-      </c>
-      <c r="V16" s="77">
-        <v>2</v>
-      </c>
-      <c r="W16" s="77">
-        <v>2</v>
-      </c>
-      <c r="X16" s="77">
+      <c r="U16" s="64">
+        <v>2</v>
+      </c>
+      <c r="V16" s="64">
+        <v>2</v>
+      </c>
+      <c r="W16" s="64">
+        <v>2</v>
+      </c>
+      <c r="X16" s="64">
         <v>4</v>
       </c>
       <c r="Y16" s="42"/>
@@ -5480,35 +5500,35 @@
       <c r="M17" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76">
-        <v>1</v>
-      </c>
-      <c r="P17" s="76">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="76">
-        <v>2</v>
-      </c>
-      <c r="R17" s="76">
-        <v>1</v>
-      </c>
-      <c r="S17" s="76">
-        <v>1</v>
-      </c>
-      <c r="T17" s="76">
+      <c r="N17" s="63"/>
+      <c r="O17" s="63">
+        <v>1</v>
+      </c>
+      <c r="P17" s="63">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="63">
+        <v>2</v>
+      </c>
+      <c r="R17" s="63">
+        <v>1</v>
+      </c>
+      <c r="S17" s="63">
+        <v>1</v>
+      </c>
+      <c r="T17" s="63">
         <v>3</v>
       </c>
-      <c r="U17" s="76">
-        <v>1</v>
-      </c>
-      <c r="V17" s="76">
-        <v>2</v>
-      </c>
-      <c r="W17" s="76">
-        <v>2</v>
-      </c>
-      <c r="X17" s="76">
+      <c r="U17" s="63">
+        <v>1</v>
+      </c>
+      <c r="V17" s="63">
+        <v>2</v>
+      </c>
+      <c r="W17" s="63">
+        <v>2</v>
+      </c>
+      <c r="X17" s="63">
         <v>3</v>
       </c>
     </row>
@@ -5522,41 +5542,43 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="42"/>
+      <c r="J18" s="42" t="s">
+        <v>300</v>
+      </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="43"/>
-      <c r="N18" s="77" t="s">
+      <c r="N18" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O18" s="77">
-        <v>1</v>
-      </c>
-      <c r="P18" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="77">
-        <v>2</v>
-      </c>
-      <c r="R18" s="77">
-        <v>2</v>
-      </c>
-      <c r="S18" s="77">
-        <v>2</v>
-      </c>
-      <c r="T18" s="77">
-        <v>2</v>
-      </c>
-      <c r="U18" s="77">
-        <v>1</v>
-      </c>
-      <c r="V18" s="77">
-        <v>1</v>
-      </c>
-      <c r="W18" s="77">
-        <v>1</v>
-      </c>
-      <c r="X18" s="77">
+      <c r="O18" s="64">
+        <v>1</v>
+      </c>
+      <c r="P18" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="64">
+        <v>2</v>
+      </c>
+      <c r="R18" s="64">
+        <v>2</v>
+      </c>
+      <c r="S18" s="64">
+        <v>2</v>
+      </c>
+      <c r="T18" s="64">
+        <v>2</v>
+      </c>
+      <c r="U18" s="64">
+        <v>1</v>
+      </c>
+      <c r="V18" s="64">
+        <v>1</v>
+      </c>
+      <c r="W18" s="64">
+        <v>1</v>
+      </c>
+      <c r="X18" s="64">
         <v>2</v>
       </c>
       <c r="Y18" s="42" t="s">
@@ -5612,35 +5634,35 @@
       <c r="M19" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77">
-        <v>2</v>
-      </c>
-      <c r="P19" s="77">
+      <c r="N19" s="64"/>
+      <c r="O19" s="64">
+        <v>2</v>
+      </c>
+      <c r="P19" s="64">
         <v>4</v>
       </c>
-      <c r="Q19" s="77">
+      <c r="Q19" s="64">
         <v>4</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="64">
         <v>4</v>
       </c>
-      <c r="S19" s="77">
-        <v>1</v>
-      </c>
-      <c r="T19" s="77">
-        <v>1</v>
-      </c>
-      <c r="U19" s="77">
-        <v>1</v>
-      </c>
-      <c r="V19" s="77">
-        <v>1</v>
-      </c>
-      <c r="W19" s="77">
-        <v>2</v>
-      </c>
-      <c r="X19" s="77">
+      <c r="S19" s="64">
+        <v>1</v>
+      </c>
+      <c r="T19" s="64">
+        <v>1</v>
+      </c>
+      <c r="U19" s="64">
+        <v>1</v>
+      </c>
+      <c r="V19" s="64">
+        <v>1</v>
+      </c>
+      <c r="W19" s="64">
+        <v>2</v>
+      </c>
+      <c r="X19" s="64">
         <v>4</v>
       </c>
       <c r="Y19" s="42"/>
@@ -5684,35 +5706,35 @@
       <c r="M20" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77">
+      <c r="N20" s="64"/>
+      <c r="O20" s="64">
         <v>6</v>
       </c>
-      <c r="P20" s="77">
+      <c r="P20" s="64">
         <v>11</v>
       </c>
-      <c r="Q20" s="77">
+      <c r="Q20" s="64">
         <v>10</v>
       </c>
-      <c r="R20" s="77">
+      <c r="R20" s="64">
         <v>6</v>
       </c>
-      <c r="S20" s="77">
+      <c r="S20" s="64">
         <v>5</v>
       </c>
-      <c r="T20" s="77">
+      <c r="T20" s="64">
         <v>7</v>
       </c>
-      <c r="U20" s="77">
-        <v>1</v>
-      </c>
-      <c r="V20" s="77">
+      <c r="U20" s="64">
+        <v>1</v>
+      </c>
+      <c r="V20" s="64">
         <v>0</v>
       </c>
-      <c r="W20" s="77">
+      <c r="W20" s="64">
         <v>6</v>
       </c>
-      <c r="X20" s="77">
+      <c r="X20" s="64">
         <v>12</v>
       </c>
       <c r="Y20" s="42"/>
@@ -5758,35 +5780,35 @@
       <c r="M21" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77">
-        <v>2</v>
-      </c>
-      <c r="P21" s="77">
+      <c r="N21" s="64"/>
+      <c r="O21" s="64">
+        <v>2</v>
+      </c>
+      <c r="P21" s="64">
         <v>4</v>
       </c>
-      <c r="Q21" s="77">
+      <c r="Q21" s="64">
         <v>4</v>
       </c>
-      <c r="R21" s="77">
-        <v>2</v>
-      </c>
-      <c r="S21" s="77">
-        <v>2</v>
-      </c>
-      <c r="T21" s="77">
+      <c r="R21" s="64">
+        <v>2</v>
+      </c>
+      <c r="S21" s="64">
+        <v>2</v>
+      </c>
+      <c r="T21" s="64">
         <v>4</v>
       </c>
-      <c r="U21" s="77">
-        <v>1</v>
-      </c>
-      <c r="V21" s="77">
-        <v>1</v>
-      </c>
-      <c r="W21" s="77">
-        <v>2</v>
-      </c>
-      <c r="X21" s="77">
+      <c r="U21" s="64">
+        <v>1</v>
+      </c>
+      <c r="V21" s="64">
+        <v>1</v>
+      </c>
+      <c r="W21" s="64">
+        <v>2</v>
+      </c>
+      <c r="X21" s="64">
         <v>4</v>
       </c>
       <c r="Y21" s="42"/>
@@ -5834,35 +5856,35 @@
       <c r="M22" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76">
-        <v>2</v>
-      </c>
-      <c r="P22" s="76">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="76">
+      <c r="N22" s="63"/>
+      <c r="O22" s="63">
+        <v>2</v>
+      </c>
+      <c r="P22" s="63">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="63">
         <v>0</v>
       </c>
-      <c r="R22" s="76">
-        <v>2</v>
-      </c>
-      <c r="S22" s="76">
-        <v>1</v>
-      </c>
-      <c r="T22" s="76">
+      <c r="R22" s="63">
+        <v>2</v>
+      </c>
+      <c r="S22" s="63">
+        <v>1</v>
+      </c>
+      <c r="T22" s="63">
         <v>3</v>
       </c>
-      <c r="U22" s="76">
-        <v>1</v>
-      </c>
-      <c r="V22" s="76">
-        <v>1</v>
-      </c>
-      <c r="W22" s="76">
+      <c r="U22" s="63">
+        <v>1</v>
+      </c>
+      <c r="V22" s="63">
+        <v>1</v>
+      </c>
+      <c r="W22" s="63">
         <v>3</v>
       </c>
-      <c r="X22" s="76">
+      <c r="X22" s="63">
         <v>3</v>
       </c>
     </row>
@@ -5876,39 +5898,41 @@
       <c r="G23" s="23"/>
       <c r="H23" s="14"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="42"/>
+      <c r="J23" s="42" t="s">
+        <v>146</v>
+      </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="43"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77">
+      <c r="N23" s="64"/>
+      <c r="O23" s="64">
         <v>9</v>
       </c>
-      <c r="P23" s="77">
+      <c r="P23" s="64">
         <v>11</v>
       </c>
-      <c r="Q23" s="77">
+      <c r="Q23" s="64">
         <v>12</v>
       </c>
-      <c r="R23" s="77">
+      <c r="R23" s="64">
         <v>8</v>
       </c>
-      <c r="S23" s="77">
+      <c r="S23" s="64">
         <v>4</v>
       </c>
-      <c r="T23" s="77">
+      <c r="T23" s="64">
         <v>10</v>
       </c>
-      <c r="U23" s="77">
+      <c r="U23" s="64">
         <v>5</v>
       </c>
-      <c r="V23" s="77">
+      <c r="V23" s="64">
         <v>6</v>
       </c>
-      <c r="W23" s="77">
+      <c r="W23" s="64">
         <v>11</v>
       </c>
-      <c r="X23" s="77">
+      <c r="X23" s="64">
         <v>12</v>
       </c>
       <c r="Y23" s="42" t="s">
@@ -5964,35 +5988,35 @@
       <c r="M24" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77">
+      <c r="N24" s="64"/>
+      <c r="O24" s="64">
         <v>5.83</v>
       </c>
-      <c r="P24" s="77">
+      <c r="P24" s="64">
         <v>5.17</v>
       </c>
-      <c r="Q24" s="77">
+      <c r="Q24" s="64">
         <v>5.17</v>
       </c>
-      <c r="R24" s="77">
+      <c r="R24" s="64">
         <v>5</v>
       </c>
-      <c r="S24" s="77">
+      <c r="S24" s="64">
         <v>4.83</v>
       </c>
-      <c r="T24" s="77">
+      <c r="T24" s="64">
         <v>0</v>
       </c>
-      <c r="U24" s="77">
+      <c r="U24" s="64">
         <v>5.17</v>
       </c>
-      <c r="V24" s="77">
+      <c r="V24" s="64">
         <v>4.83</v>
       </c>
-      <c r="W24" s="77">
+      <c r="W24" s="64">
         <v>4.82</v>
       </c>
-      <c r="X24" s="77">
+      <c r="X24" s="64">
         <v>6</v>
       </c>
       <c r="Y24" s="42"/>
@@ -6040,35 +6064,35 @@
       <c r="M25" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76">
-        <v>2</v>
-      </c>
-      <c r="P25" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="76">
-        <v>1</v>
-      </c>
-      <c r="R25" s="76">
-        <v>1</v>
-      </c>
-      <c r="S25" s="76">
+      <c r="N25" s="63"/>
+      <c r="O25" s="63">
+        <v>2</v>
+      </c>
+      <c r="P25" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="63">
+        <v>1</v>
+      </c>
+      <c r="R25" s="63">
+        <v>1</v>
+      </c>
+      <c r="S25" s="63">
         <v>0</v>
       </c>
-      <c r="T25" s="76">
-        <v>2</v>
-      </c>
-      <c r="U25" s="76">
-        <v>1</v>
-      </c>
-      <c r="V25" s="76">
-        <v>1</v>
-      </c>
-      <c r="W25" s="76">
-        <v>1</v>
-      </c>
-      <c r="X25" s="76">
+      <c r="T25" s="63">
+        <v>2</v>
+      </c>
+      <c r="U25" s="63">
+        <v>1</v>
+      </c>
+      <c r="V25" s="63">
+        <v>1</v>
+      </c>
+      <c r="W25" s="63">
+        <v>1</v>
+      </c>
+      <c r="X25" s="63">
         <v>3</v>
       </c>
     </row>
@@ -6082,41 +6106,43 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="42"/>
+      <c r="J26" s="42" t="s">
+        <v>145</v>
+      </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="43"/>
-      <c r="N26" s="77" t="s">
+      <c r="N26" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O26" s="77">
-        <v>2</v>
-      </c>
-      <c r="P26" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="77">
-        <v>2</v>
-      </c>
-      <c r="R26" s="77">
-        <v>2</v>
-      </c>
-      <c r="S26" s="77">
+      <c r="O26" s="64">
+        <v>2</v>
+      </c>
+      <c r="P26" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="64">
+        <v>2</v>
+      </c>
+      <c r="R26" s="64">
+        <v>2</v>
+      </c>
+      <c r="S26" s="64">
         <v>0</v>
       </c>
-      <c r="T26" s="77">
-        <v>2</v>
-      </c>
-      <c r="U26" s="77">
-        <v>2</v>
-      </c>
-      <c r="V26" s="77">
-        <v>2</v>
-      </c>
-      <c r="W26" s="77">
-        <v>2</v>
-      </c>
-      <c r="X26" s="77">
+      <c r="T26" s="64">
+        <v>2</v>
+      </c>
+      <c r="U26" s="64">
+        <v>2</v>
+      </c>
+      <c r="V26" s="64">
+        <v>2</v>
+      </c>
+      <c r="W26" s="64">
+        <v>2</v>
+      </c>
+      <c r="X26" s="64">
         <v>2</v>
       </c>
       <c r="Y26" s="42" t="s">
@@ -6172,35 +6198,35 @@
       <c r="M27" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76">
-        <v>2</v>
-      </c>
-      <c r="P27" s="76">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="76">
+      <c r="N27" s="63"/>
+      <c r="O27" s="63">
+        <v>2</v>
+      </c>
+      <c r="P27" s="63">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="63">
         <v>0</v>
       </c>
-      <c r="R27" s="76">
+      <c r="R27" s="63">
         <v>0</v>
       </c>
-      <c r="S27" s="76">
+      <c r="S27" s="63">
         <v>0</v>
       </c>
-      <c r="T27" s="76">
+      <c r="T27" s="63">
         <v>0</v>
       </c>
-      <c r="U27" s="76">
-        <v>2</v>
-      </c>
-      <c r="V27" s="76">
-        <v>1</v>
-      </c>
-      <c r="W27" s="76">
-        <v>2</v>
-      </c>
-      <c r="X27" s="76">
+      <c r="U27" s="63">
+        <v>2</v>
+      </c>
+      <c r="V27" s="63">
+        <v>1</v>
+      </c>
+      <c r="W27" s="63">
+        <v>2</v>
+      </c>
+      <c r="X27" s="63">
         <v>3</v>
       </c>
     </row>
@@ -6214,41 +6240,43 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="42"/>
+      <c r="J28" s="42" t="s">
+        <v>302</v>
+      </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="77" t="s">
+      <c r="N28" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O28" s="77">
-        <v>2</v>
-      </c>
-      <c r="P28" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="77">
+      <c r="O28" s="64">
+        <v>2</v>
+      </c>
+      <c r="P28" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="64">
         <v>0</v>
       </c>
-      <c r="R28" s="77">
+      <c r="R28" s="64">
         <v>0</v>
       </c>
-      <c r="S28" s="77">
+      <c r="S28" s="64">
         <v>0</v>
       </c>
-      <c r="T28" s="77">
+      <c r="T28" s="64">
         <v>0</v>
       </c>
-      <c r="U28" s="77">
-        <v>2</v>
-      </c>
-      <c r="V28" s="77">
-        <v>2</v>
-      </c>
-      <c r="W28" s="77">
-        <v>2</v>
-      </c>
-      <c r="X28" s="77">
+      <c r="U28" s="64">
+        <v>2</v>
+      </c>
+      <c r="V28" s="64">
+        <v>2</v>
+      </c>
+      <c r="W28" s="64">
+        <v>2</v>
+      </c>
+      <c r="X28" s="64">
         <v>2</v>
       </c>
       <c r="Y28" s="42" t="s">
@@ -6304,35 +6332,35 @@
       <c r="M29" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76">
-        <v>2</v>
-      </c>
-      <c r="P29" s="76">
+      <c r="N29" s="63"/>
+      <c r="O29" s="63">
+        <v>2</v>
+      </c>
+      <c r="P29" s="63">
         <v>3</v>
       </c>
-      <c r="Q29" s="76">
-        <v>2</v>
-      </c>
-      <c r="R29" s="76">
+      <c r="Q29" s="63">
+        <v>2</v>
+      </c>
+      <c r="R29" s="63">
         <v>3</v>
       </c>
-      <c r="S29" s="76">
-        <v>1</v>
-      </c>
-      <c r="T29" s="76">
-        <v>2</v>
-      </c>
-      <c r="U29" s="76">
-        <v>1</v>
-      </c>
-      <c r="V29" s="76">
-        <v>1</v>
-      </c>
-      <c r="W29" s="76">
-        <v>1</v>
-      </c>
-      <c r="X29" s="76">
+      <c r="S29" s="63">
+        <v>1</v>
+      </c>
+      <c r="T29" s="63">
+        <v>2</v>
+      </c>
+      <c r="U29" s="63">
+        <v>1</v>
+      </c>
+      <c r="V29" s="63">
+        <v>1</v>
+      </c>
+      <c r="W29" s="63">
+        <v>1</v>
+      </c>
+      <c r="X29" s="63">
         <v>4</v>
       </c>
     </row>
@@ -6346,39 +6374,41 @@
       <c r="G30" s="23"/>
       <c r="H30" s="14"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="42"/>
+      <c r="J30" s="42" t="s">
+        <v>303</v>
+      </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="43"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77">
+      <c r="N30" s="64"/>
+      <c r="O30" s="64">
         <v>3</v>
       </c>
-      <c r="P30" s="77">
+      <c r="P30" s="64">
         <v>3</v>
       </c>
-      <c r="Q30" s="77">
+      <c r="Q30" s="64">
         <v>3</v>
       </c>
-      <c r="R30" s="77">
-        <v>1</v>
-      </c>
-      <c r="S30" s="77">
+      <c r="R30" s="64">
+        <v>1</v>
+      </c>
+      <c r="S30" s="64">
         <v>3</v>
       </c>
-      <c r="T30" s="77">
-        <v>2</v>
-      </c>
-      <c r="U30" s="77">
+      <c r="T30" s="64">
+        <v>2</v>
+      </c>
+      <c r="U30" s="64">
         <v>3</v>
       </c>
-      <c r="V30" s="77">
+      <c r="V30" s="64">
         <v>3</v>
       </c>
-      <c r="W30" s="77">
+      <c r="W30" s="64">
         <v>3</v>
       </c>
-      <c r="X30" s="77">
+      <c r="X30" s="64">
         <v>3</v>
       </c>
       <c r="Y30" s="42" t="s">
@@ -6434,35 +6464,35 @@
       <c r="M31" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76">
+      <c r="N31" s="63"/>
+      <c r="O31" s="63">
         <v>3</v>
       </c>
-      <c r="P31" s="76">
+      <c r="P31" s="63">
         <v>4</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="63">
         <v>3</v>
       </c>
-      <c r="R31" s="76">
+      <c r="R31" s="63">
         <v>4</v>
       </c>
-      <c r="S31" s="76">
-        <v>2</v>
-      </c>
-      <c r="T31" s="76">
-        <v>2</v>
-      </c>
-      <c r="U31" s="76">
-        <v>1</v>
-      </c>
-      <c r="V31" s="76">
+      <c r="S31" s="63">
+        <v>2</v>
+      </c>
+      <c r="T31" s="63">
+        <v>2</v>
+      </c>
+      <c r="U31" s="63">
+        <v>1</v>
+      </c>
+      <c r="V31" s="63">
         <v>3</v>
       </c>
-      <c r="W31" s="76">
-        <v>1</v>
-      </c>
-      <c r="X31" s="76">
+      <c r="W31" s="63">
+        <v>1</v>
+      </c>
+      <c r="X31" s="63">
         <v>5</v>
       </c>
     </row>
@@ -6476,41 +6506,43 @@
       <c r="G32" s="23"/>
       <c r="H32" s="14"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="42"/>
+      <c r="J32" s="42" t="s">
+        <v>306</v>
+      </c>
       <c r="K32" s="23"/>
       <c r="L32" s="14"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="77" t="s">
+      <c r="N32" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O32" s="77">
-        <v>2</v>
-      </c>
-      <c r="P32" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="77">
-        <v>2</v>
-      </c>
-      <c r="R32" s="77">
-        <v>2</v>
-      </c>
-      <c r="S32" s="77">
-        <v>2</v>
-      </c>
-      <c r="T32" s="77">
-        <v>2</v>
-      </c>
-      <c r="U32" s="77">
-        <v>2</v>
-      </c>
-      <c r="V32" s="77">
-        <v>2</v>
-      </c>
-      <c r="W32" s="77">
-        <v>2</v>
-      </c>
-      <c r="X32" s="77">
+      <c r="O32" s="64">
+        <v>2</v>
+      </c>
+      <c r="P32" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="64">
+        <v>2</v>
+      </c>
+      <c r="R32" s="64">
+        <v>2</v>
+      </c>
+      <c r="S32" s="64">
+        <v>2</v>
+      </c>
+      <c r="T32" s="64">
+        <v>2</v>
+      </c>
+      <c r="U32" s="64">
+        <v>2</v>
+      </c>
+      <c r="V32" s="64">
+        <v>2</v>
+      </c>
+      <c r="W32" s="64">
+        <v>2</v>
+      </c>
+      <c r="X32" s="64">
         <v>2</v>
       </c>
       <c r="Y32" s="42" t="s">
@@ -6566,35 +6598,35 @@
       <c r="M33" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77">
+      <c r="N33" s="64"/>
+      <c r="O33" s="64">
         <v>4</v>
       </c>
-      <c r="P33" s="77">
+      <c r="P33" s="64">
         <v>9</v>
       </c>
-      <c r="Q33" s="77">
-        <v>2</v>
-      </c>
-      <c r="R33" s="77">
+      <c r="Q33" s="64">
+        <v>2</v>
+      </c>
+      <c r="R33" s="64">
         <v>4</v>
       </c>
-      <c r="S33" s="77">
+      <c r="S33" s="64">
         <v>3</v>
       </c>
-      <c r="T33" s="77">
+      <c r="T33" s="64">
         <v>6</v>
       </c>
-      <c r="U33" s="77">
+      <c r="U33" s="64">
         <v>3</v>
       </c>
-      <c r="V33" s="77">
-        <v>1</v>
-      </c>
-      <c r="W33" s="77">
+      <c r="V33" s="64">
+        <v>1</v>
+      </c>
+      <c r="W33" s="64">
         <v>4</v>
       </c>
-      <c r="X33" s="77">
+      <c r="X33" s="64">
         <v>10</v>
       </c>
       <c r="Y33" s="42"/>
@@ -6642,35 +6674,35 @@
       <c r="M34" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77">
-        <v>2</v>
-      </c>
-      <c r="P34" s="77">
+      <c r="N34" s="64"/>
+      <c r="O34" s="64">
+        <v>2</v>
+      </c>
+      <c r="P34" s="64">
         <v>3</v>
       </c>
-      <c r="Q34" s="77">
+      <c r="Q34" s="64">
         <v>0</v>
       </c>
-      <c r="R34" s="77">
-        <v>2</v>
-      </c>
-      <c r="S34" s="77">
+      <c r="R34" s="64">
+        <v>2</v>
+      </c>
+      <c r="S34" s="64">
         <v>0</v>
       </c>
-      <c r="T34" s="77">
+      <c r="T34" s="64">
         <v>3</v>
       </c>
-      <c r="U34" s="77">
+      <c r="U34" s="64">
         <v>0</v>
       </c>
-      <c r="V34" s="77">
-        <v>1</v>
-      </c>
-      <c r="W34" s="77">
-        <v>1</v>
-      </c>
-      <c r="X34" s="77">
+      <c r="V34" s="64">
+        <v>1</v>
+      </c>
+      <c r="W34" s="64">
+        <v>1</v>
+      </c>
+      <c r="X34" s="64">
         <v>4</v>
       </c>
       <c r="Y34" s="42"/>
@@ -6718,35 +6750,35 @@
       <c r="M35" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77">
-        <v>1</v>
-      </c>
-      <c r="P35" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="77">
-        <v>2</v>
-      </c>
-      <c r="R35" s="77">
-        <v>1</v>
-      </c>
-      <c r="S35" s="77">
-        <v>1</v>
-      </c>
-      <c r="T35" s="77">
-        <v>2</v>
-      </c>
-      <c r="U35" s="77">
-        <v>1</v>
-      </c>
-      <c r="V35" s="77">
-        <v>1</v>
-      </c>
-      <c r="W35" s="77">
-        <v>1</v>
-      </c>
-      <c r="X35" s="77">
+      <c r="N35" s="64"/>
+      <c r="O35" s="64">
+        <v>1</v>
+      </c>
+      <c r="P35" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="64">
+        <v>2</v>
+      </c>
+      <c r="R35" s="64">
+        <v>1</v>
+      </c>
+      <c r="S35" s="64">
+        <v>1</v>
+      </c>
+      <c r="T35" s="64">
+        <v>2</v>
+      </c>
+      <c r="U35" s="64">
+        <v>1</v>
+      </c>
+      <c r="V35" s="64">
+        <v>1</v>
+      </c>
+      <c r="W35" s="64">
+        <v>1</v>
+      </c>
+      <c r="X35" s="64">
         <v>2</v>
       </c>
       <c r="Y35" s="42"/>
@@ -6794,35 +6826,35 @@
       <c r="M36" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77">
+      <c r="N36" s="64"/>
+      <c r="O36" s="64">
         <v>3</v>
       </c>
-      <c r="P36" s="77">
+      <c r="P36" s="64">
         <v>3</v>
       </c>
-      <c r="Q36" s="77">
+      <c r="Q36" s="64">
         <v>5</v>
       </c>
-      <c r="R36" s="77">
+      <c r="R36" s="64">
         <v>4</v>
       </c>
-      <c r="S36" s="77">
-        <v>1</v>
-      </c>
-      <c r="T36" s="77">
+      <c r="S36" s="64">
+        <v>1</v>
+      </c>
+      <c r="T36" s="64">
         <v>4</v>
       </c>
-      <c r="U36" s="77">
-        <v>2</v>
-      </c>
-      <c r="V36" s="77">
-        <v>1</v>
-      </c>
-      <c r="W36" s="77">
+      <c r="U36" s="64">
+        <v>2</v>
+      </c>
+      <c r="V36" s="64">
+        <v>1</v>
+      </c>
+      <c r="W36" s="64">
         <v>3</v>
       </c>
-      <c r="X36" s="77">
+      <c r="X36" s="64">
         <v>5</v>
       </c>
       <c r="Y36" s="42"/>
@@ -6870,35 +6902,35 @@
       <c r="M37" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77">
+      <c r="N37" s="64"/>
+      <c r="O37" s="64">
         <v>4</v>
       </c>
-      <c r="P37" s="77">
+      <c r="P37" s="64">
         <v>3</v>
       </c>
-      <c r="Q37" s="77">
+      <c r="Q37" s="64">
         <v>3</v>
       </c>
-      <c r="R37" s="77">
+      <c r="R37" s="64">
         <v>3</v>
       </c>
-      <c r="S37" s="77">
+      <c r="S37" s="64">
         <v>4</v>
       </c>
-      <c r="T37" s="77">
-        <v>2</v>
-      </c>
-      <c r="U37" s="77">
-        <v>1</v>
-      </c>
-      <c r="V37" s="77">
+      <c r="T37" s="64">
+        <v>2</v>
+      </c>
+      <c r="U37" s="64">
+        <v>1</v>
+      </c>
+      <c r="V37" s="64">
         <v>4</v>
       </c>
-      <c r="W37" s="77">
-        <v>1</v>
-      </c>
-      <c r="X37" s="77">
+      <c r="W37" s="64">
+        <v>1</v>
+      </c>
+      <c r="X37" s="64">
         <v>4</v>
       </c>
       <c r="Y37" s="42"/>
@@ -6946,35 +6978,35 @@
       <c r="M38" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77">
+      <c r="N38" s="64"/>
+      <c r="O38" s="64">
         <v>7</v>
       </c>
-      <c r="P38" s="77">
+      <c r="P38" s="64">
         <v>10</v>
       </c>
-      <c r="Q38" s="77">
+      <c r="Q38" s="64">
         <v>8</v>
       </c>
-      <c r="R38" s="77">
+      <c r="R38" s="64">
         <v>5</v>
       </c>
-      <c r="S38" s="77">
+      <c r="S38" s="64">
         <v>4</v>
       </c>
-      <c r="T38" s="77">
+      <c r="T38" s="64">
         <v>9</v>
       </c>
-      <c r="U38" s="77">
+      <c r="U38" s="64">
         <v>0</v>
       </c>
-      <c r="V38" s="77">
+      <c r="V38" s="64">
         <v>7</v>
       </c>
-      <c r="W38" s="77">
+      <c r="W38" s="64">
         <v>9</v>
       </c>
-      <c r="X38" s="77">
+      <c r="X38" s="64">
         <v>10</v>
       </c>
       <c r="Y38" s="42"/>
@@ -7022,35 +7054,35 @@
       <c r="M39" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79">
+      <c r="N39" s="66"/>
+      <c r="O39" s="66">
         <v>0.19</v>
       </c>
-      <c r="P39" s="79">
+      <c r="P39" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q39" s="79">
+      <c r="Q39" s="66">
         <v>0.1</v>
       </c>
-      <c r="R39" s="79">
+      <c r="R39" s="66">
         <v>0.19</v>
       </c>
-      <c r="S39" s="79">
+      <c r="S39" s="66">
         <v>0.59</v>
       </c>
-      <c r="T39" s="79">
+      <c r="T39" s="66">
         <v>0.02</v>
       </c>
-      <c r="U39" s="79">
+      <c r="U39" s="66">
         <v>0.21</v>
       </c>
-      <c r="V39" s="79">
+      <c r="V39" s="66">
         <v>0</v>
       </c>
-      <c r="W39" s="79">
+      <c r="W39" s="66">
         <v>0.51</v>
       </c>
-      <c r="X39" s="79">
+      <c r="X39" s="66">
         <v>1</v>
       </c>
       <c r="Y39" s="14"/>
@@ -7098,35 +7130,35 @@
       <c r="M40" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79">
-        <v>1</v>
-      </c>
-      <c r="P40" s="79">
+      <c r="N40" s="66"/>
+      <c r="O40" s="66">
+        <v>1</v>
+      </c>
+      <c r="P40" s="66">
         <v>0.06</v>
       </c>
-      <c r="Q40" s="79">
+      <c r="Q40" s="66">
         <v>0.65</v>
       </c>
-      <c r="R40" s="79">
+      <c r="R40" s="66">
         <v>0.98</v>
       </c>
-      <c r="S40" s="79">
+      <c r="S40" s="66">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T40" s="79">
+      <c r="T40" s="66">
         <v>0</v>
       </c>
-      <c r="U40" s="79">
+      <c r="U40" s="66">
         <v>0.49</v>
       </c>
-      <c r="V40" s="79">
+      <c r="V40" s="66">
         <v>0</v>
       </c>
-      <c r="W40" s="79">
+      <c r="W40" s="66">
         <v>0.22</v>
       </c>
-      <c r="X40" s="79">
+      <c r="X40" s="66">
         <v>1</v>
       </c>
       <c r="Y40" s="14"/>
@@ -7174,35 +7206,35 @@
       <c r="M41" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77">
-        <v>1</v>
-      </c>
-      <c r="P41" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="77">
-        <v>1</v>
-      </c>
-      <c r="R41" s="77">
+      <c r="N41" s="64"/>
+      <c r="O41" s="64">
+        <v>1</v>
+      </c>
+      <c r="P41" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="64">
+        <v>1</v>
+      </c>
+      <c r="R41" s="64">
         <v>0</v>
       </c>
-      <c r="S41" s="77">
-        <v>1</v>
-      </c>
-      <c r="T41" s="77">
-        <v>1</v>
-      </c>
-      <c r="U41" s="77">
+      <c r="S41" s="64">
+        <v>1</v>
+      </c>
+      <c r="T41" s="64">
+        <v>1</v>
+      </c>
+      <c r="U41" s="64">
         <v>0</v>
       </c>
-      <c r="V41" s="77">
-        <v>1</v>
-      </c>
-      <c r="W41" s="77">
-        <v>1</v>
-      </c>
-      <c r="X41" s="77">
+      <c r="V41" s="64">
+        <v>1</v>
+      </c>
+      <c r="W41" s="64">
+        <v>1</v>
+      </c>
+      <c r="X41" s="64">
         <v>1</v>
       </c>
       <c r="Y41" s="42"/>
@@ -7244,17 +7276,17 @@
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="43"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="77"/>
-      <c r="S42" s="77"/>
-      <c r="T42" s="77"/>
-      <c r="U42" s="77"/>
-      <c r="V42" s="77"/>
-      <c r="W42" s="77"/>
-      <c r="X42" s="77"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
       <c r="Y42" s="42"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="14"/>
@@ -7300,35 +7332,35 @@
       <c r="M43" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77">
+      <c r="N43" s="64"/>
+      <c r="O43" s="64">
         <v>4</v>
       </c>
-      <c r="P43" s="77">
+      <c r="P43" s="64">
         <v>8</v>
       </c>
-      <c r="Q43" s="77">
+      <c r="Q43" s="64">
         <v>3</v>
       </c>
-      <c r="R43" s="77">
+      <c r="R43" s="64">
         <v>0</v>
       </c>
-      <c r="S43" s="77">
+      <c r="S43" s="64">
         <v>4</v>
       </c>
-      <c r="T43" s="77">
+      <c r="T43" s="64">
         <v>7</v>
       </c>
-      <c r="U43" s="77">
-        <v>1</v>
-      </c>
-      <c r="V43" s="77">
+      <c r="U43" s="64">
+        <v>1</v>
+      </c>
+      <c r="V43" s="64">
         <v>3</v>
       </c>
-      <c r="W43" s="77">
-        <v>2</v>
-      </c>
-      <c r="X43" s="77">
+      <c r="W43" s="64">
+        <v>2</v>
+      </c>
+      <c r="X43" s="64">
         <v>9</v>
       </c>
       <c r="Y43" s="42"/>
@@ -7376,35 +7408,35 @@
       <c r="M44" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77">
+      <c r="N44" s="64"/>
+      <c r="O44" s="64">
         <v>3</v>
       </c>
-      <c r="P44" s="77">
+      <c r="P44" s="64">
         <v>7</v>
       </c>
-      <c r="Q44" s="77">
+      <c r="Q44" s="64">
         <v>4</v>
       </c>
-      <c r="R44" s="77">
+      <c r="R44" s="64">
         <v>3</v>
       </c>
-      <c r="S44" s="77">
+      <c r="S44" s="64">
         <v>0</v>
       </c>
-      <c r="T44" s="77">
+      <c r="T44" s="64">
         <v>3</v>
       </c>
-      <c r="U44" s="77">
-        <v>1</v>
-      </c>
-      <c r="V44" s="77">
-        <v>2</v>
-      </c>
-      <c r="W44" s="77">
-        <v>2</v>
-      </c>
-      <c r="X44" s="77">
+      <c r="U44" s="64">
+        <v>1</v>
+      </c>
+      <c r="V44" s="64">
+        <v>2</v>
+      </c>
+      <c r="W44" s="64">
+        <v>2</v>
+      </c>
+      <c r="X44" s="64">
         <v>8</v>
       </c>
       <c r="Y44" s="42"/>
@@ -7452,35 +7484,35 @@
       <c r="M45" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76">
+      <c r="N45" s="63"/>
+      <c r="O45" s="63">
         <v>9</v>
       </c>
-      <c r="P45" s="76">
+      <c r="P45" s="63">
         <v>13</v>
       </c>
-      <c r="Q45" s="76">
+      <c r="Q45" s="63">
         <v>4</v>
       </c>
-      <c r="R45" s="76">
-        <v>1</v>
-      </c>
-      <c r="S45" s="76">
+      <c r="R45" s="63">
+        <v>1</v>
+      </c>
+      <c r="S45" s="63">
         <v>4</v>
       </c>
-      <c r="T45" s="76">
+      <c r="T45" s="63">
         <v>9</v>
       </c>
-      <c r="U45" s="76">
-        <v>1</v>
-      </c>
-      <c r="V45" s="76">
+      <c r="U45" s="63">
+        <v>1</v>
+      </c>
+      <c r="V45" s="63">
         <v>0</v>
       </c>
-      <c r="W45" s="76">
-        <v>2</v>
-      </c>
-      <c r="X45" s="76">
+      <c r="W45" s="63">
+        <v>2</v>
+      </c>
+      <c r="X45" s="63">
         <v>14</v>
       </c>
     </row>
@@ -7494,39 +7526,41 @@
       <c r="G46" s="23"/>
       <c r="H46" s="14"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="42"/>
+      <c r="J46" s="42" t="s">
+        <v>147</v>
+      </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="43"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77">
+      <c r="N46" s="64"/>
+      <c r="O46" s="64">
         <v>4</v>
       </c>
-      <c r="P46" s="77">
+      <c r="P46" s="64">
         <v>4</v>
       </c>
-      <c r="Q46" s="77">
+      <c r="Q46" s="64">
         <v>4</v>
       </c>
-      <c r="R46" s="77">
-        <v>2</v>
-      </c>
-      <c r="S46" s="77">
-        <v>1</v>
-      </c>
-      <c r="T46" s="77">
-        <v>2</v>
-      </c>
-      <c r="U46" s="77">
-        <v>1</v>
-      </c>
-      <c r="V46" s="77">
+      <c r="R46" s="64">
+        <v>2</v>
+      </c>
+      <c r="S46" s="64">
+        <v>1</v>
+      </c>
+      <c r="T46" s="64">
+        <v>2</v>
+      </c>
+      <c r="U46" s="64">
+        <v>1</v>
+      </c>
+      <c r="V46" s="64">
         <v>0</v>
       </c>
-      <c r="W46" s="77">
-        <v>2</v>
-      </c>
-      <c r="X46" s="77">
+      <c r="W46" s="64">
+        <v>2</v>
+      </c>
+      <c r="X46" s="64">
         <v>4</v>
       </c>
       <c r="Y46" s="42" t="s">
@@ -7582,35 +7616,35 @@
       <c r="M47" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77">
-        <v>2</v>
-      </c>
-      <c r="P47" s="77">
+      <c r="N47" s="64"/>
+      <c r="O47" s="64">
+        <v>2</v>
+      </c>
+      <c r="P47" s="64">
         <v>4</v>
       </c>
-      <c r="Q47" s="77">
-        <v>1</v>
-      </c>
-      <c r="R47" s="77">
+      <c r="Q47" s="64">
+        <v>1</v>
+      </c>
+      <c r="R47" s="64">
         <v>3</v>
       </c>
-      <c r="S47" s="77">
-        <v>1</v>
-      </c>
-      <c r="T47" s="77">
+      <c r="S47" s="64">
+        <v>1</v>
+      </c>
+      <c r="T47" s="64">
         <v>0</v>
       </c>
-      <c r="U47" s="77">
+      <c r="U47" s="64">
         <v>0</v>
       </c>
-      <c r="V47" s="77">
-        <v>1</v>
-      </c>
-      <c r="W47" s="77">
+      <c r="V47" s="64">
+        <v>1</v>
+      </c>
+      <c r="W47" s="64">
         <v>0</v>
       </c>
-      <c r="X47" s="77">
+      <c r="X47" s="64">
         <v>5</v>
       </c>
       <c r="Y47" s="42"/>
@@ -7658,35 +7692,35 @@
       <c r="M48" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76">
+      <c r="N48" s="63"/>
+      <c r="O48" s="63">
         <v>0</v>
       </c>
-      <c r="P48" s="76">
+      <c r="P48" s="63">
         <v>4</v>
       </c>
-      <c r="Q48" s="76">
+      <c r="Q48" s="63">
         <v>4</v>
       </c>
-      <c r="R48" s="76">
+      <c r="R48" s="63">
         <v>4</v>
       </c>
-      <c r="S48" s="76">
+      <c r="S48" s="63">
         <v>3</v>
       </c>
-      <c r="T48" s="76">
+      <c r="T48" s="63">
         <v>4</v>
       </c>
-      <c r="U48" s="76">
-        <v>2</v>
-      </c>
-      <c r="V48" s="76">
-        <v>2</v>
-      </c>
-      <c r="W48" s="76">
+      <c r="U48" s="63">
+        <v>2</v>
+      </c>
+      <c r="V48" s="63">
+        <v>2</v>
+      </c>
+      <c r="W48" s="63">
         <v>0</v>
       </c>
-      <c r="X48" s="76">
+      <c r="X48" s="63">
         <v>4</v>
       </c>
     </row>
@@ -7700,41 +7734,43 @@
       <c r="G49" s="23"/>
       <c r="H49" s="14"/>
       <c r="I49" s="44"/>
-      <c r="J49" s="42"/>
+      <c r="J49" s="42" t="s">
+        <v>311</v>
+      </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="43"/>
-      <c r="N49" s="77" t="s">
+      <c r="N49" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O49" s="77">
+      <c r="O49" s="64">
         <v>0</v>
       </c>
-      <c r="P49" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q49" s="77">
-        <v>2</v>
-      </c>
-      <c r="R49" s="77">
-        <v>2</v>
-      </c>
-      <c r="S49" s="77">
-        <v>2</v>
-      </c>
-      <c r="T49" s="77">
-        <v>2</v>
-      </c>
-      <c r="U49" s="77">
-        <v>2</v>
-      </c>
-      <c r="V49" s="77">
-        <v>2</v>
-      </c>
-      <c r="W49" s="77">
+      <c r="P49" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="64">
+        <v>2</v>
+      </c>
+      <c r="R49" s="64">
+        <v>2</v>
+      </c>
+      <c r="S49" s="64">
+        <v>2</v>
+      </c>
+      <c r="T49" s="64">
+        <v>2</v>
+      </c>
+      <c r="U49" s="64">
+        <v>2</v>
+      </c>
+      <c r="V49" s="64">
+        <v>2</v>
+      </c>
+      <c r="W49" s="64">
         <v>0</v>
       </c>
-      <c r="X49" s="77">
+      <c r="X49" s="64">
         <v>2</v>
       </c>
       <c r="Y49" s="42" t="s">
@@ -7790,35 +7826,35 @@
       <c r="M50" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77">
+      <c r="N50" s="64"/>
+      <c r="O50" s="64">
         <v>5</v>
       </c>
-      <c r="P50" s="77">
+      <c r="P50" s="64">
         <v>7</v>
       </c>
-      <c r="Q50" s="77">
+      <c r="Q50" s="64">
         <v>5</v>
       </c>
-      <c r="R50" s="77">
+      <c r="R50" s="64">
         <v>3</v>
       </c>
-      <c r="S50" s="77">
+      <c r="S50" s="64">
         <v>6</v>
       </c>
-      <c r="T50" s="77">
+      <c r="T50" s="64">
         <v>7</v>
       </c>
-      <c r="U50" s="77">
+      <c r="U50" s="64">
         <v>3</v>
       </c>
-      <c r="V50" s="77">
+      <c r="V50" s="64">
         <v>6</v>
       </c>
-      <c r="W50" s="77">
+      <c r="W50" s="64">
         <v>4</v>
       </c>
-      <c r="X50" s="77">
+      <c r="X50" s="64">
         <v>7</v>
       </c>
       <c r="Y50" s="42"/>
@@ -7866,35 +7902,35 @@
       <c r="M51" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77">
-        <v>2</v>
-      </c>
-      <c r="P51" s="77">
+      <c r="N51" s="64"/>
+      <c r="O51" s="64">
+        <v>2</v>
+      </c>
+      <c r="P51" s="64">
         <v>0</v>
       </c>
-      <c r="Q51" s="77">
-        <v>2</v>
-      </c>
-      <c r="R51" s="77">
-        <v>2</v>
-      </c>
-      <c r="S51" s="77">
-        <v>2</v>
-      </c>
-      <c r="T51" s="77">
+      <c r="Q51" s="64">
+        <v>2</v>
+      </c>
+      <c r="R51" s="64">
+        <v>2</v>
+      </c>
+      <c r="S51" s="64">
+        <v>2</v>
+      </c>
+      <c r="T51" s="64">
         <v>0</v>
       </c>
-      <c r="U51" s="77">
+      <c r="U51" s="64">
         <v>0</v>
       </c>
-      <c r="V51" s="77">
-        <v>2</v>
-      </c>
-      <c r="W51" s="77">
-        <v>2</v>
-      </c>
-      <c r="X51" s="77">
+      <c r="V51" s="64">
+        <v>2</v>
+      </c>
+      <c r="W51" s="64">
+        <v>2</v>
+      </c>
+      <c r="X51" s="64">
         <v>2</v>
       </c>
       <c r="Y51" s="42"/>
@@ -7942,35 +7978,35 @@
       <c r="M52" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77">
+      <c r="N52" s="64"/>
+      <c r="O52" s="64">
         <v>3</v>
       </c>
-      <c r="P52" s="77">
+      <c r="P52" s="64">
         <v>9</v>
       </c>
-      <c r="Q52" s="77">
+      <c r="Q52" s="64">
         <v>9</v>
       </c>
-      <c r="R52" s="77">
-        <v>2</v>
-      </c>
-      <c r="S52" s="77">
+      <c r="R52" s="64">
+        <v>2</v>
+      </c>
+      <c r="S52" s="64">
         <v>5</v>
       </c>
-      <c r="T52" s="77">
+      <c r="T52" s="64">
         <v>9</v>
       </c>
-      <c r="U52" s="77">
+      <c r="U52" s="64">
         <v>4</v>
       </c>
-      <c r="V52" s="77">
+      <c r="V52" s="64">
         <v>5</v>
       </c>
-      <c r="W52" s="77">
-        <v>2</v>
-      </c>
-      <c r="X52" s="77">
+      <c r="W52" s="64">
+        <v>2</v>
+      </c>
+      <c r="X52" s="64">
         <v>10</v>
       </c>
       <c r="Y52" s="42"/>
@@ -8018,35 +8054,35 @@
       <c r="M53" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77">
+      <c r="N53" s="64"/>
+      <c r="O53" s="64">
         <v>0</v>
       </c>
-      <c r="P53" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="77">
-        <v>1</v>
-      </c>
-      <c r="R53" s="77">
+      <c r="P53" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="64">
+        <v>1</v>
+      </c>
+      <c r="R53" s="64">
         <v>0</v>
       </c>
-      <c r="S53" s="77">
+      <c r="S53" s="64">
         <v>0</v>
       </c>
-      <c r="T53" s="77">
-        <v>1</v>
-      </c>
-      <c r="U53" s="77">
-        <v>1</v>
-      </c>
-      <c r="V53" s="77">
+      <c r="T53" s="64">
+        <v>1</v>
+      </c>
+      <c r="U53" s="64">
+        <v>1</v>
+      </c>
+      <c r="V53" s="64">
         <v>0</v>
       </c>
-      <c r="W53" s="77">
+      <c r="W53" s="64">
         <v>0</v>
       </c>
-      <c r="X53" s="77">
+      <c r="X53" s="64">
         <v>1</v>
       </c>
       <c r="Y53" s="42"/>
@@ -8082,7 +8118,9 @@
       <c r="I54" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="J54" s="42"/>
+      <c r="J54" s="42" t="s">
+        <v>423</v>
+      </c>
       <c r="K54" s="14" t="s">
         <v>266</v>
       </c>
@@ -8092,35 +8130,35 @@
       <c r="M54" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77">
-        <v>1</v>
-      </c>
-      <c r="P54" s="77">
+      <c r="N54" s="64"/>
+      <c r="O54" s="64">
+        <v>1</v>
+      </c>
+      <c r="P54" s="64">
         <v>4</v>
       </c>
-      <c r="Q54" s="77">
+      <c r="Q54" s="64">
         <v>0</v>
       </c>
-      <c r="R54" s="77">
+      <c r="R54" s="64">
         <v>3</v>
       </c>
-      <c r="S54" s="77">
-        <v>1</v>
-      </c>
-      <c r="T54" s="77">
-        <v>1</v>
-      </c>
-      <c r="U54" s="77">
-        <v>1</v>
-      </c>
-      <c r="V54" s="77">
-        <v>1</v>
-      </c>
-      <c r="W54" s="77">
-        <v>1</v>
-      </c>
-      <c r="X54" s="77">
+      <c r="S54" s="64">
+        <v>1</v>
+      </c>
+      <c r="T54" s="64">
+        <v>1</v>
+      </c>
+      <c r="U54" s="64">
+        <v>1</v>
+      </c>
+      <c r="V54" s="64">
+        <v>1</v>
+      </c>
+      <c r="W54" s="64">
+        <v>1</v>
+      </c>
+      <c r="X54" s="64">
         <v>4</v>
       </c>
       <c r="Y54" s="42"/>
@@ -8156,7 +8194,9 @@
       <c r="I55" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="J55" s="42"/>
+      <c r="J55" s="42" t="s">
+        <v>424</v>
+      </c>
       <c r="K55" s="14" t="s">
         <v>269</v>
       </c>
@@ -8166,35 +8206,35 @@
       <c r="M55" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77">
-        <v>1</v>
-      </c>
-      <c r="P55" s="77">
+      <c r="N55" s="64"/>
+      <c r="O55" s="64">
+        <v>1</v>
+      </c>
+      <c r="P55" s="64">
         <v>4</v>
       </c>
-      <c r="Q55" s="77">
+      <c r="Q55" s="64">
         <v>0</v>
       </c>
-      <c r="R55" s="77">
-        <v>2</v>
-      </c>
-      <c r="S55" s="77">
-        <v>1</v>
-      </c>
-      <c r="T55" s="77">
-        <v>1</v>
-      </c>
-      <c r="U55" s="77">
-        <v>2</v>
-      </c>
-      <c r="V55" s="77">
+      <c r="R55" s="64">
+        <v>2</v>
+      </c>
+      <c r="S55" s="64">
+        <v>1</v>
+      </c>
+      <c r="T55" s="64">
+        <v>1</v>
+      </c>
+      <c r="U55" s="64">
+        <v>2</v>
+      </c>
+      <c r="V55" s="64">
         <v>3</v>
       </c>
-      <c r="W55" s="77">
-        <v>1</v>
-      </c>
-      <c r="X55" s="77">
+      <c r="W55" s="64">
+        <v>1</v>
+      </c>
+      <c r="X55" s="64">
         <v>4</v>
       </c>
       <c r="Y55" s="42"/>
@@ -8242,35 +8282,35 @@
       <c r="M56" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76">
-        <v>2</v>
-      </c>
-      <c r="P56" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="76">
-        <v>2</v>
-      </c>
-      <c r="R56" s="76">
-        <v>1</v>
-      </c>
-      <c r="S56" s="76">
-        <v>1</v>
-      </c>
-      <c r="T56" s="76">
-        <v>2</v>
-      </c>
-      <c r="U56" s="76">
-        <v>1</v>
-      </c>
-      <c r="V56" s="76">
-        <v>1</v>
-      </c>
-      <c r="W56" s="76">
-        <v>1</v>
-      </c>
-      <c r="X56" s="76">
+      <c r="N56" s="63"/>
+      <c r="O56" s="63">
+        <v>2</v>
+      </c>
+      <c r="P56" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="63">
+        <v>2</v>
+      </c>
+      <c r="R56" s="63">
+        <v>1</v>
+      </c>
+      <c r="S56" s="63">
+        <v>1</v>
+      </c>
+      <c r="T56" s="63">
+        <v>2</v>
+      </c>
+      <c r="U56" s="63">
+        <v>1</v>
+      </c>
+      <c r="V56" s="63">
+        <v>1</v>
+      </c>
+      <c r="W56" s="63">
+        <v>1</v>
+      </c>
+      <c r="X56" s="63">
         <v>2</v>
       </c>
     </row>
@@ -8284,41 +8324,43 @@
       <c r="G57" s="23"/>
       <c r="H57" s="14"/>
       <c r="I57" s="46"/>
-      <c r="J57" s="42"/>
+      <c r="J57" s="42" t="s">
+        <v>148</v>
+      </c>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="43"/>
-      <c r="N57" s="77" t="s">
+      <c r="N57" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O57" s="77">
-        <v>2</v>
-      </c>
-      <c r="P57" s="77">
+      <c r="O57" s="64">
+        <v>2</v>
+      </c>
+      <c r="P57" s="64">
         <v>0</v>
       </c>
-      <c r="Q57" s="77">
-        <v>2</v>
-      </c>
-      <c r="R57" s="77">
-        <v>2</v>
-      </c>
-      <c r="S57" s="77">
-        <v>2</v>
-      </c>
-      <c r="T57" s="77">
-        <v>2</v>
-      </c>
-      <c r="U57" s="77">
+      <c r="Q57" s="64">
+        <v>2</v>
+      </c>
+      <c r="R57" s="64">
+        <v>2</v>
+      </c>
+      <c r="S57" s="64">
+        <v>2</v>
+      </c>
+      <c r="T57" s="64">
+        <v>2</v>
+      </c>
+      <c r="U57" s="64">
         <v>0</v>
       </c>
-      <c r="V57" s="77">
-        <v>2</v>
-      </c>
-      <c r="W57" s="77">
-        <v>2</v>
-      </c>
-      <c r="X57" s="77">
+      <c r="V57" s="64">
+        <v>2</v>
+      </c>
+      <c r="W57" s="64">
+        <v>2</v>
+      </c>
+      <c r="X57" s="64">
         <v>2</v>
       </c>
       <c r="Y57" s="42" t="s">
@@ -8374,35 +8416,35 @@
       <c r="M58" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76">
-        <v>1</v>
-      </c>
-      <c r="P58" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="76">
+      <c r="N58" s="63"/>
+      <c r="O58" s="63">
+        <v>1</v>
+      </c>
+      <c r="P58" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="63">
         <v>0</v>
       </c>
-      <c r="R58" s="76">
-        <v>1</v>
-      </c>
-      <c r="S58" s="76">
-        <v>1</v>
-      </c>
-      <c r="T58" s="76">
-        <v>1</v>
-      </c>
-      <c r="U58" s="76">
+      <c r="R58" s="63">
+        <v>1</v>
+      </c>
+      <c r="S58" s="63">
+        <v>1</v>
+      </c>
+      <c r="T58" s="63">
+        <v>1</v>
+      </c>
+      <c r="U58" s="63">
         <v>0</v>
       </c>
-      <c r="V58" s="76">
+      <c r="V58" s="63">
         <v>0</v>
       </c>
-      <c r="W58" s="76">
+      <c r="W58" s="63">
         <v>0</v>
       </c>
-      <c r="X58" s="76">
+      <c r="X58" s="63">
         <v>2</v>
       </c>
     </row>
@@ -8416,41 +8458,43 @@
       <c r="G59" s="23"/>
       <c r="H59" s="14"/>
       <c r="I59" s="46"/>
-      <c r="J59" s="42"/>
+      <c r="J59" s="42" t="s">
+        <v>149</v>
+      </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="43"/>
-      <c r="N59" s="77" t="s">
+      <c r="N59" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O59" s="77">
-        <v>2</v>
-      </c>
-      <c r="P59" s="77">
+      <c r="O59" s="64">
+        <v>2</v>
+      </c>
+      <c r="P59" s="64">
         <v>0</v>
       </c>
-      <c r="Q59" s="77">
+      <c r="Q59" s="64">
         <v>0</v>
       </c>
-      <c r="R59" s="77">
+      <c r="R59" s="64">
         <v>0</v>
       </c>
-      <c r="S59" s="77">
-        <v>2</v>
-      </c>
-      <c r="T59" s="77">
-        <v>2</v>
-      </c>
-      <c r="U59" s="77">
+      <c r="S59" s="64">
+        <v>2</v>
+      </c>
+      <c r="T59" s="64">
+        <v>2</v>
+      </c>
+      <c r="U59" s="64">
         <v>0</v>
       </c>
-      <c r="V59" s="77">
+      <c r="V59" s="64">
         <v>0</v>
       </c>
-      <c r="W59" s="77">
+      <c r="W59" s="64">
         <v>0</v>
       </c>
-      <c r="X59" s="77">
+      <c r="X59" s="64">
         <v>2</v>
       </c>
       <c r="Y59" s="42" t="s">
@@ -8506,35 +8550,35 @@
       <c r="M60" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76">
+      <c r="N60" s="63"/>
+      <c r="O60" s="63">
         <v>0</v>
       </c>
-      <c r="P60" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="76">
+      <c r="P60" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="63">
         <v>0</v>
       </c>
-      <c r="R60" s="76">
-        <v>1</v>
-      </c>
-      <c r="S60" s="76">
-        <v>1</v>
-      </c>
-      <c r="T60" s="76">
-        <v>1</v>
-      </c>
-      <c r="U60" s="76">
+      <c r="R60" s="63">
+        <v>1</v>
+      </c>
+      <c r="S60" s="63">
+        <v>1</v>
+      </c>
+      <c r="T60" s="63">
+        <v>1</v>
+      </c>
+      <c r="U60" s="63">
         <v>0</v>
       </c>
-      <c r="V60" s="76">
+      <c r="V60" s="63">
         <v>0</v>
       </c>
-      <c r="W60" s="76">
+      <c r="W60" s="63">
         <v>0</v>
       </c>
-      <c r="X60" s="76">
+      <c r="X60" s="63">
         <v>2</v>
       </c>
     </row>
@@ -8548,41 +8592,43 @@
       <c r="G61" s="23"/>
       <c r="H61" s="14"/>
       <c r="I61" s="46"/>
-      <c r="J61" s="42"/>
+      <c r="J61" s="42" t="s">
+        <v>150</v>
+      </c>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
       <c r="M61" s="43"/>
-      <c r="N61" s="77" t="s">
+      <c r="N61" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="O61" s="77">
+      <c r="O61" s="64">
         <v>0</v>
       </c>
-      <c r="P61" s="77">
+      <c r="P61" s="64">
         <v>0</v>
       </c>
-      <c r="Q61" s="77">
+      <c r="Q61" s="64">
         <v>0</v>
       </c>
-      <c r="R61" s="77">
-        <v>2</v>
-      </c>
-      <c r="S61" s="77">
-        <v>2</v>
-      </c>
-      <c r="T61" s="76">
+      <c r="R61" s="64">
+        <v>2</v>
+      </c>
+      <c r="S61" s="64">
+        <v>2</v>
+      </c>
+      <c r="T61" s="63">
         <v>0</v>
       </c>
-      <c r="U61" s="77">
+      <c r="U61" s="64">
         <v>0</v>
       </c>
-      <c r="V61" s="77">
+      <c r="V61" s="64">
         <v>0</v>
       </c>
-      <c r="W61" s="77">
+      <c r="W61" s="64">
         <v>0</v>
       </c>
-      <c r="X61" s="77">
+      <c r="X61" s="64">
         <v>2</v>
       </c>
       <c r="Y61" s="42" t="s">
@@ -8638,35 +8684,35 @@
       <c r="M62" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="N62" s="77"/>
-      <c r="O62" s="77">
+      <c r="N62" s="64"/>
+      <c r="O62" s="64">
         <v>0.02</v>
       </c>
-      <c r="P62" s="77">
+      <c r="P62" s="64">
         <v>0.01</v>
       </c>
-      <c r="Q62" s="77">
+      <c r="Q62" s="64">
         <v>0</v>
       </c>
-      <c r="R62" s="77">
+      <c r="R62" s="64">
         <v>0.09</v>
       </c>
-      <c r="S62" s="77">
+      <c r="S62" s="64">
         <v>0.16</v>
       </c>
-      <c r="T62" s="77">
+      <c r="T62" s="64">
         <v>0</v>
       </c>
-      <c r="U62" s="77">
+      <c r="U62" s="64">
         <v>0.02</v>
       </c>
-      <c r="V62" s="77">
+      <c r="V62" s="64">
         <v>0</v>
       </c>
-      <c r="W62" s="77">
+      <c r="W62" s="64">
         <v>0.02</v>
       </c>
-      <c r="X62" s="77">
+      <c r="X62" s="64">
         <v>1</v>
       </c>
       <c r="Y62" s="42"/>
@@ -8714,35 +8760,35 @@
       <c r="M63" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="N63" s="76"/>
-      <c r="O63" s="76">
+      <c r="N63" s="63"/>
+      <c r="O63" s="63">
         <v>0</v>
       </c>
-      <c r="P63" s="76">
+      <c r="P63" s="63">
         <v>3</v>
       </c>
-      <c r="Q63" s="76">
-        <v>1</v>
-      </c>
-      <c r="R63" s="76">
-        <v>2</v>
-      </c>
-      <c r="S63" s="76">
-        <v>1</v>
-      </c>
-      <c r="T63" s="76">
-        <v>2</v>
-      </c>
-      <c r="U63" s="76">
-        <v>1</v>
-      </c>
-      <c r="V63" s="76">
-        <v>1</v>
-      </c>
-      <c r="W63" s="76">
-        <v>1</v>
-      </c>
-      <c r="X63" s="76">
+      <c r="Q63" s="63">
+        <v>1</v>
+      </c>
+      <c r="R63" s="63">
+        <v>2</v>
+      </c>
+      <c r="S63" s="63">
+        <v>1</v>
+      </c>
+      <c r="T63" s="63">
+        <v>2</v>
+      </c>
+      <c r="U63" s="63">
+        <v>1</v>
+      </c>
+      <c r="V63" s="63">
+        <v>1</v>
+      </c>
+      <c r="W63" s="63">
+        <v>1</v>
+      </c>
+      <c r="X63" s="63">
         <v>8</v>
       </c>
     </row>
@@ -8756,39 +8802,41 @@
       <c r="G64" s="23"/>
       <c r="H64" s="14"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="42"/>
+      <c r="J64" s="42" t="s">
+        <v>151</v>
+      </c>
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
       <c r="M64" s="43"/>
-      <c r="N64" s="77"/>
-      <c r="O64" s="77">
-        <v>1</v>
-      </c>
-      <c r="P64" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="77">
-        <v>2</v>
-      </c>
-      <c r="R64" s="77">
-        <v>1</v>
-      </c>
-      <c r="S64" s="77">
-        <v>2</v>
-      </c>
-      <c r="T64" s="77">
-        <v>1</v>
-      </c>
-      <c r="U64" s="77">
-        <v>1</v>
-      </c>
-      <c r="V64" s="77">
-        <v>1</v>
-      </c>
-      <c r="W64" s="77">
-        <v>1</v>
-      </c>
-      <c r="X64" s="77">
+      <c r="N64" s="64"/>
+      <c r="O64" s="64">
+        <v>1</v>
+      </c>
+      <c r="P64" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="64">
+        <v>2</v>
+      </c>
+      <c r="R64" s="64">
+        <v>1</v>
+      </c>
+      <c r="S64" s="64">
+        <v>2</v>
+      </c>
+      <c r="T64" s="64">
+        <v>1</v>
+      </c>
+      <c r="U64" s="64">
+        <v>1</v>
+      </c>
+      <c r="V64" s="64">
+        <v>1</v>
+      </c>
+      <c r="W64" s="64">
+        <v>1</v>
+      </c>
+      <c r="X64" s="64">
         <v>2</v>
       </c>
       <c r="Y64" s="42" t="s">
@@ -8844,35 +8892,35 @@
       <c r="M65" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="N65" s="77"/>
-      <c r="O65" s="77">
-        <v>2</v>
-      </c>
-      <c r="P65" s="77">
+      <c r="N65" s="64"/>
+      <c r="O65" s="64">
+        <v>2</v>
+      </c>
+      <c r="P65" s="64">
         <v>10</v>
       </c>
-      <c r="Q65" s="77">
+      <c r="Q65" s="64">
         <v>6</v>
       </c>
-      <c r="R65" s="77">
+      <c r="R65" s="64">
         <v>6</v>
       </c>
-      <c r="S65" s="77">
+      <c r="S65" s="64">
         <v>6</v>
       </c>
-      <c r="T65" s="77">
+      <c r="T65" s="64">
         <v>8</v>
       </c>
-      <c r="U65" s="77">
-        <v>1</v>
-      </c>
-      <c r="V65" s="77">
+      <c r="U65" s="64">
+        <v>1</v>
+      </c>
+      <c r="V65" s="64">
         <v>4</v>
       </c>
-      <c r="W65" s="77">
+      <c r="W65" s="64">
         <v>5</v>
       </c>
-      <c r="X65" s="77">
+      <c r="X65" s="64">
         <v>11</v>
       </c>
       <c r="Y65" s="42"/>
@@ -8890,188 +8938,188 @@
       <c r="K66" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="N66" s="76" t="s">
+      <c r="N66" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="O66" s="77">
-        <v>1</v>
-      </c>
-      <c r="P66" s="77">
+      <c r="O66" s="64">
+        <v>1</v>
+      </c>
+      <c r="P66" s="64">
         <v>3</v>
       </c>
-      <c r="Q66" s="77">
+      <c r="Q66" s="64">
         <v>0</v>
       </c>
-      <c r="R66" s="77">
+      <c r="R66" s="64">
         <v>3</v>
       </c>
-      <c r="S66" s="77">
-        <v>1</v>
-      </c>
-      <c r="T66" s="77">
-        <v>2</v>
-      </c>
-      <c r="U66" s="77">
+      <c r="S66" s="64">
+        <v>1</v>
+      </c>
+      <c r="T66" s="64">
+        <v>2</v>
+      </c>
+      <c r="U66" s="64">
         <v>0</v>
       </c>
-      <c r="V66" s="77">
+      <c r="V66" s="64">
         <v>3</v>
       </c>
-      <c r="W66" s="77">
+      <c r="W66" s="64">
         <v>4</v>
       </c>
-      <c r="X66" s="77">
+      <c r="X66" s="64">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
       <c r="K67" s="59"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="77"/>
-      <c r="P67" s="77"/>
-      <c r="Q67" s="77"/>
-      <c r="R67" s="77"/>
-      <c r="S67" s="77"/>
-      <c r="T67" s="77"/>
-      <c r="U67" s="77"/>
-      <c r="V67" s="77"/>
-      <c r="W67" s="76"/>
-      <c r="X67" s="76"/>
-    </row>
-    <row r="68" spans="1:28" ht="35" x14ac:dyDescent="0.35">
+      <c r="N67" s="63"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="64"/>
+      <c r="S67" s="64"/>
+      <c r="T67" s="64"/>
+      <c r="U67" s="64"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="63"/>
+      <c r="X67" s="63"/>
+    </row>
+    <row r="68" spans="1:28" ht="22" x14ac:dyDescent="0.35">
       <c r="K68" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="N68" s="81" t="s">
+      <c r="N68" s="68" t="s">
         <v>417</v>
       </c>
-      <c r="O68" s="80">
+      <c r="O68" s="67">
         <f t="shared" ref="O68:X68" si="0">SUM(O4:O66)</f>
         <v>134.04</v>
       </c>
-      <c r="P68" s="80">
+      <c r="P68" s="67">
         <f t="shared" si="0"/>
         <v>209.31</v>
       </c>
-      <c r="Q68" s="80">
+      <c r="Q68" s="67">
         <f t="shared" si="0"/>
         <v>153.92000000000002</v>
       </c>
-      <c r="R68" s="80">
+      <c r="R68" s="67">
         <f t="shared" si="0"/>
         <v>127.26</v>
       </c>
-      <c r="S68" s="80">
+      <c r="S68" s="67">
         <f t="shared" si="0"/>
         <v>113.16</v>
       </c>
-      <c r="T68" s="80">
+      <c r="T68" s="67">
         <f t="shared" si="0"/>
         <v>158.01999999999998</v>
       </c>
-      <c r="U68" s="80">
+      <c r="U68" s="67">
         <f t="shared" si="0"/>
         <v>68.89</v>
       </c>
-      <c r="V68" s="80">
+      <c r="V68" s="67">
         <f t="shared" si="0"/>
         <v>102.83</v>
       </c>
-      <c r="W68" s="80">
+      <c r="W68" s="67">
         <f t="shared" si="0"/>
         <v>122.57</v>
       </c>
-      <c r="X68" s="80">
+      <c r="X68" s="67">
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="140" x14ac:dyDescent="0.35">
-      <c r="N70" s="81" t="s">
+    <row r="70" spans="1:28" ht="70" x14ac:dyDescent="0.35">
+      <c r="N70" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="O70" s="80">
+      <c r="O70" s="67">
         <f>SUMIF($N4:$N66,"Y",O4:O66)</f>
         <v>18</v>
       </c>
-      <c r="P70" s="80">
+      <c r="P70" s="67">
         <f t="shared" ref="P70:X70" si="1">SUMIF($N4:$N66,"Y",P4:P66)</f>
         <v>23</v>
       </c>
-      <c r="Q70" s="80">
+      <c r="Q70" s="67">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="R70" s="80">
+      <c r="R70" s="67">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S70" s="80">
+      <c r="S70" s="67">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="T70" s="80">
+      <c r="T70" s="67">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="U70" s="80">
+      <c r="U70" s="67">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="V70" s="80">
+      <c r="V70" s="67">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="W70" s="80">
+      <c r="W70" s="67">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="X70" s="80">
+      <c r="X70" s="67">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="122.5" x14ac:dyDescent="0.35">
-      <c r="N71" s="81" t="s">
+    <row r="71" spans="1:28" ht="70" x14ac:dyDescent="0.35">
+      <c r="N71" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="O71" s="80">
+      <c r="O71" s="67">
         <f t="shared" ref="O71:X71" si="2">O68-O70</f>
         <v>116.03999999999999</v>
       </c>
-      <c r="P71" s="80">
+      <c r="P71" s="67">
         <f t="shared" si="2"/>
         <v>186.31</v>
       </c>
-      <c r="Q71" s="80">
+      <c r="Q71" s="67">
         <f t="shared" si="2"/>
         <v>133.92000000000002</v>
       </c>
-      <c r="R71" s="80">
+      <c r="R71" s="67">
         <f t="shared" si="2"/>
         <v>106.26</v>
       </c>
-      <c r="S71" s="80">
+      <c r="S71" s="67">
         <f t="shared" si="2"/>
         <v>92.16</v>
       </c>
-      <c r="T71" s="80">
+      <c r="T71" s="67">
         <f t="shared" si="2"/>
         <v>138.01999999999998</v>
       </c>
-      <c r="U71" s="80">
+      <c r="U71" s="67">
         <f t="shared" si="2"/>
         <v>58.89</v>
       </c>
-      <c r="V71" s="80">
+      <c r="V71" s="67">
         <f t="shared" si="2"/>
         <v>82.83</v>
       </c>
-      <c r="W71" s="80">
+      <c r="W71" s="67">
         <f t="shared" si="2"/>
         <v>101.57</v>
       </c>
-      <c r="X71" s="80">
+      <c r="X71" s="67">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
@@ -9586,6 +9634,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF924455AF204D4E973173A042C45507" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f60397d6edaaa9d5fcdcbfcc6b12f9ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14e74e3b-dee4-43c8-8b26-f73bcabf902e" xmlns:ns3="d46e480a-b990-4709-9368-7cc8f9ecf0d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="198141288452759a7aea0a026624f286" ns2:_="" ns3:_="">
     <xsd:import namespace="14e74e3b-dee4-43c8-8b26-f73bcabf902e"/>
@@ -9782,22 +9845,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEF7802A-5AF5-4B78-A21A-3D4AD9A984E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27836784-F189-43FD-AFCA-D66A44FA3A1A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d46e480a-b990-4709-9368-7cc8f9ecf0d6"/>
+    <ds:schemaRef ds:uri="14e74e3b-dee4-43c8-8b26-f73bcabf902e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47E40A0-5715-4883-9F27-4D8978EAE1C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9814,29 +9887,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27836784-F189-43FD-AFCA-D66A44FA3A1A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d46e480a-b990-4709-9368-7cc8f9ecf0d6"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="14e74e3b-dee4-43c8-8b26-f73bcabf902e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEF7802A-5AF5-4B78-A21A-3D4AD9A984E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>